--- a/import letter of credit/amendment Examples.xlsx
+++ b/import letter of credit/amendment Examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\import letter of credit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A02B5A4-9841-42BA-BE3E-BCE13F5D5677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CD5611-8921-40B2-BAF9-6C6BA78BD520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -947,13 +947,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1243,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="105" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1268,7 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1287,7 @@
       <c r="M6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1300,13 +1295,12 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10"/>
       <c r="C8" s="2">
         <v>45292</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="2">
@@ -1315,7 +1309,7 @@
       <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -1326,12 +1320,11 @@
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="10"/>
       <c r="C13" s="2">
         <v>45294</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
@@ -1343,7 +1336,7 @@
       <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O13" t="s">
@@ -1362,7 +1355,6 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="10"/>
       <c r="C18" s="2">
         <v>45295</v>
       </c>
@@ -1390,12 +1382,11 @@
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="10"/>
       <c r="C24" s="2">
         <v>45296</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
@@ -1418,7 +1409,6 @@
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10"/>
       <c r="C27" s="2">
         <v>45297</v>
       </c>
@@ -1443,11 +1433,10 @@
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="10"/>
       <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="s">
@@ -1467,10 +1456,9 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="10"/>
       <c r="C32" s="2">
         <v>45300</v>
       </c>
@@ -1484,10 +1472,9 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="10"/>
       <c r="C34" s="2">
         <v>45658</v>
       </c>
@@ -1507,7 +1494,7 @@
       <c r="M34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="14" t="s">
         <v>32</v>
       </c>
     </row>
